--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2506,7 +2506,7 @@
     <col min="26" max="26" width="68.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$142</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5545" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1190,65 +1190,37 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:potassiumInSerOrPlasCode</t>
-  </si>
-  <si>
-    <t>potassiumInSerOrPlasCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:potassiumInSerOrPlasCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:potassiumInSerOrPlasCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:potassiumInSerOrPlasCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
     <t>http://loinc.org</t>
   </si>
   <si>
-    <t>Observation.code.coding:potassiumInSerOrPlasCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:potassiumInSerOrPlasCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>2075-0</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:potassiumInSerOrPlasCode.display</t>
+    <t>2823-3</t>
   </si>
   <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Observation.code.coding:potassiumInSerOrPlasCode.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Potassium [Moles/volume] in Serum or Plasma</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2469,7 +2441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP143"/>
+  <dimension ref="A1:AP142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13066,7 +13038,7 @@
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -13148,7 +13120,7 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>372</v>
@@ -13426,7 +13398,7 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -13484,14 +13456,16 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AC91" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>230</v>
@@ -13529,48 +13503,42 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13618,19 +13586,19 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13639,10 +13607,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13653,21 +13621,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13679,15 +13647,17 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13724,31 +13694,31 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13760,7 +13730,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13771,21 +13741,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13794,27 +13764,29 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13844,31 +13816,31 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13877,10 +13849,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13891,10 +13863,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13902,7 +13874,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>92</v>
@@ -13917,26 +13889,24 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>82</v>
@@ -13978,7 +13948,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13999,10 +13969,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14013,10 +13983,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14024,7 +13994,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>92</v>
@@ -14039,24 +14009,26 @@
         <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14098,7 +14070,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14119,10 +14091,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14133,10 +14105,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14144,7 +14116,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>92</v>
@@ -14159,26 +14131,26 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>82</v>
@@ -14220,7 +14192,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14241,10 +14213,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14255,10 +14227,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14281,19 +14253,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14342,7 +14314,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14363,10 +14335,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14377,10 +14349,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14388,13 +14360,13 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14403,19 +14375,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14425,7 +14397,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14464,7 +14436,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14485,10 +14457,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14499,10 +14471,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14525,19 +14497,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14586,7 +14558,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14598,22 +14570,22 @@
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>291</v>
+        <v>400</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14621,10 +14593,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14635,7 +14607,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14647,20 +14619,18 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O101" t="s" s="2">
         <v>406</v>
       </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14708,13 +14678,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>104</v>
@@ -14723,19 +14693,19 @@
         <v>170</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AO101" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14743,21 +14713,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14769,18 +14739,20 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N102" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14828,13 +14800,13 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>104</v>
@@ -14843,19 +14815,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -14863,14 +14835,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14889,19 +14861,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14950,7 +14922,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14962,22 +14934,22 @@
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14985,14 +14957,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15011,20 +14983,18 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O104" t="s" s="2">
         <v>434</v>
       </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15072,7 +15042,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15087,19 +15057,19 @@
         <v>105</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AN104" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15107,10 +15077,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15121,7 +15091,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -15133,18 +15103,20 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O105" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N105" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15192,22 +15164,22 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
@@ -15241,7 +15213,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15262,10 +15234,10 @@
         <v>450</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15302,16 +15274,14 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>447</v>
@@ -15320,41 +15290,43 @@
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>104</v>
+        <v>454</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15375,19 +15347,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15424,59 +15396,59 @@
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AN107" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15494,23 +15466,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>470</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>458</v>
+        <v>216</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15558,7 +15526,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>456</v>
+        <v>218</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15567,7 +15535,7 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>82</v>
@@ -15576,38 +15544,38 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15619,15 +15587,17 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15664,31 +15634,31 @@
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15700,7 +15670,7 @@
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15711,44 +15681,46 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>140</v>
+        <v>468</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>141</v>
+        <v>469</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>221</v>
+        <v>470</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15784,31 +15756,31 @@
         <v>82</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>222</v>
+        <v>473</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15817,10 +15789,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>106</v>
+        <v>475</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15831,10 +15803,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15842,22 +15814,22 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>477</v>
+        <v>115</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>478</v>
@@ -15866,15 +15838,17 @@
         <v>479</v>
       </c>
       <c r="N111" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O111" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="O111" t="s" s="2">
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="P111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15894,13 +15868,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15918,7 +15892,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15939,10 +15913,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15953,10 +15927,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15964,41 +15938,39 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q112" t="s" s="2">
-        <v>490</v>
-      </c>
+      <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16018,31 +15990,31 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>491</v>
+        <v>82</v>
       </c>
       <c r="Z112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF112" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16063,10 +16035,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16077,10 +16049,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16103,16 +16075,16 @@
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>500</v>
@@ -16122,7 +16094,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>82</v>
+        <v>501</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>82</v>
@@ -16164,7 +16136,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16173,7 +16145,7 @@
         <v>92</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>104</v>
+        <v>503</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16185,10 +16157,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16199,10 +16171,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16225,10 +16197,10 @@
         <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>507</v>
@@ -16244,31 +16216,31 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y114" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="S114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z114" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16286,7 +16258,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16295,7 +16267,7 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>512</v>
+        <v>104</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>105</v>
@@ -16307,7 +16279,7 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>513</v>
@@ -16324,7 +16296,7 @@
         <v>514</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16332,25 +16304,25 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>516</v>
@@ -16384,13 +16356,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>188</v>
+        <v>519</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16408,7 +16380,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16417,7 +16389,7 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>104</v>
+        <v>522</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16429,10 +16401,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>502</v>
+        <v>106</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16443,21 +16415,21 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16472,16 +16444,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16506,13 +16478,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16530,16 +16502,16 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16548,31 +16520,31 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>106</v>
+        <v>533</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16591,19 +16563,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>198</v>
+        <v>537</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16628,13 +16600,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16652,7 +16624,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16670,7 +16642,7 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>542</v>
@@ -16682,15 +16654,15 @@
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16701,7 +16673,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16713,20 +16685,18 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M118" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>550</v>
-      </c>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16750,13 +16720,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16774,13 +16744,13 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>104</v>
@@ -16792,7 +16762,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>551</v>
@@ -16804,15 +16774,15 @@
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16838,15 +16808,17 @@
         <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16873,10 +16845,10 @@
         <v>369</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16894,7 +16866,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16912,19 +16884,19 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" hidden="true">
@@ -16955,20 +16927,18 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>198</v>
+        <v>564</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O120" t="s" s="2">
         <v>567</v>
       </c>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>82</v>
       </c>
@@ -16992,13 +16962,13 @@
         <v>82</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -17028,25 +16998,25 @@
         <v>104</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="121" hidden="true">
@@ -17185,7 +17155,7 @@
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
@@ -17208,7 +17178,9 @@
       <c r="N122" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="O122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17262,31 +17234,31 @@
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>170</v>
+        <v>587</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" hidden="true">
@@ -17305,7 +17277,7 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17317,20 +17289,16 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>592</v>
+        <v>216</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17378,19 +17346,19 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>590</v>
+        <v>218</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>596</v>
+        <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17399,10 +17367,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>598</v>
+        <v>113</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17413,21 +17381,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>82</v>
@@ -17439,15 +17407,17 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17484,31 +17454,31 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17520,7 +17490,7 @@
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17531,14 +17501,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>139</v>
+        <v>593</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17551,24 +17521,26 @@
         <v>82</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>141</v>
+        <v>594</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>221</v>
+        <v>595</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17604,19 +17576,19 @@
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>222</v>
+        <v>596</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17651,46 +17623,44 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>140</v>
+        <v>598</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17738,31 +17708,31 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17799,16 +17769,16 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N127" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17867,10 +17837,10 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17879,10 +17849,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17893,10 +17863,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17919,18 +17889,20 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>607</v>
+        <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
@@ -17954,13 +17926,13 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>82</v>
+        <v>616</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17978,7 +17950,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17987,22 +17959,22 @@
         <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>611</v>
+        <v>104</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>612</v>
+        <v>105</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>82</v>
+        <v>617</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>618</v>
+        <v>534</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18027,7 +17999,7 @@
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>82</v>
@@ -18076,7 +18048,7 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="Y129" t="s" s="2">
         <v>624</v>
@@ -18106,7 +18078,7 @@
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>104</v>
@@ -18118,13 +18090,13 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18135,10 +18107,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18149,7 +18121,7 @@
         <v>80</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>82</v>
@@ -18161,19 +18133,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>198</v>
+        <v>627</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18198,13 +18170,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>633</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18222,31 +18194,31 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>105</v>
+        <v>632</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>626</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>543</v>
+        <v>634</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18283,20 +18255,18 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M131" t="s" s="2">
-        <v>638</v>
-      </c>
       <c r="N131" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18356,7 +18326,7 @@
         <v>104</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>641</v>
+        <v>105</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
@@ -18365,10 +18335,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18379,10 +18349,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18393,7 +18363,7 @@
         <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>82</v>
@@ -18402,19 +18372,19 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>215</v>
+        <v>640</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>259</v>
+        <v>643</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18464,19 +18434,19 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
@@ -18485,10 +18455,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18499,10 +18469,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18525,16 +18495,16 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18584,7 +18554,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18605,10 +18575,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18619,10 +18589,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18645,18 +18615,20 @@
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O134" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L134" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18704,7 +18676,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18716,7 +18688,7 @@
         <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
@@ -18725,10 +18697,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18739,10 +18711,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18753,7 +18725,7 @@
         <v>80</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>82</v>
@@ -18762,23 +18734,19 @@
         <v>82</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>662</v>
+        <v>216</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>665</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>82</v>
       </c>
@@ -18826,19 +18794,19 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>661</v>
+        <v>218</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
@@ -18847,10 +18815,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>666</v>
+        <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>667</v>
+        <v>113</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18861,21 +18829,21 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>82</v>
@@ -18887,15 +18855,17 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N136" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18932,31 +18902,31 @@
         <v>82</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
@@ -18968,7 +18938,7 @@
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -18979,14 +18949,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>139</v>
+        <v>593</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -18999,24 +18969,26 @@
         <v>82</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>141</v>
+        <v>594</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>221</v>
+        <v>595</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
@@ -19052,19 +19024,19 @@
         <v>82</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>222</v>
+        <v>596</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19099,45 +19071,45 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>603</v>
+        <v>663</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>143</v>
+        <v>665</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19162,13 +19134,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19186,34 +19158,34 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>82</v>
+        <v>666</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19221,10 +19193,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19232,7 +19204,7 @@
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>92</v>
@@ -19247,19 +19219,19 @@
         <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>198</v>
+        <v>448</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>673</v>
+        <v>450</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>368</v>
+        <v>452</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19284,13 +19256,13 @@
         <v>82</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19308,10 +19280,10 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>92</v>
@@ -19326,27 +19298,27 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19366,22 +19338,22 @@
         <v>82</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>457</v>
+        <v>198</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>459</v>
+        <v>673</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19406,13 +19378,13 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19430,7 +19402,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19439,7 +19411,7 @@
         <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>104</v>
+        <v>522</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>105</v>
@@ -19448,38 +19420,38 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>679</v>
+        <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>465</v>
+        <v>106</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP140" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
@@ -19494,16 +19466,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>681</v>
+        <v>526</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>682</v>
+        <v>527</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>683</v>
+        <v>528</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19528,13 +19500,13 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
@@ -19552,16 +19524,16 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>105</v>
@@ -19570,31 +19542,31 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>106</v>
+        <v>533</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19613,19 +19585,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>535</v>
+        <v>677</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>536</v>
+        <v>678</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19650,13 +19622,13 @@
         <v>82</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19674,7 +19646,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19683,154 +19655,32 @@
         <v>81</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="P143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q143" s="2"/>
-      <c r="R143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP143" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP143">
+  <autoFilter ref="A1:AP142">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19840,7 +19690,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI142">
+  <conditionalFormatting sqref="A2:AI141">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="678">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2478,7 +2475,7 @@
     <col min="26" max="26" width="68.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4268,10 +4265,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4295,13 +4292,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4309,13 +4306,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4419,13 +4416,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4433,10 +4430,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4459,13 +4456,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4516,7 +4513,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4551,10 +4548,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4583,7 +4580,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4636,7 +4633,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4671,10 +4668,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4697,19 +4694,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4758,7 +4755,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4779,10 +4776,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4793,10 +4790,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4819,13 +4816,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4876,7 +4873,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4911,10 +4908,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4943,7 +4940,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4996,7 +4993,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5031,10 +5028,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5060,65 +5057,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5139,10 +5136,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5153,10 +5150,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5179,16 +5176,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5238,7 +5235,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5259,10 +5256,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5273,10 +5270,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5302,65 +5299,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5381,10 +5378,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5395,10 +5392,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5421,19 +5418,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5482,7 +5479,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5503,10 +5500,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5517,10 +5514,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5543,19 +5540,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5604,7 +5601,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5625,10 +5622,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5639,10 +5636,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5665,19 +5662,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5726,7 +5723,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5747,10 +5744,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5761,13 +5758,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5871,13 +5868,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5885,10 +5882,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5911,13 +5908,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5968,7 +5965,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6003,10 +6000,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6035,7 +6032,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6088,7 +6085,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6123,10 +6120,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6149,19 +6146,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6210,7 +6207,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6231,10 +6228,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6245,10 +6242,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6271,13 +6268,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6328,7 +6325,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6363,10 +6360,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6395,7 +6392,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6448,7 +6445,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6483,10 +6480,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6512,23 +6509,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6570,7 +6567,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6591,10 +6588,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6605,10 +6602,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6631,16 +6628,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6690,7 +6687,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6711,10 +6708,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6725,10 +6722,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6754,23 +6751,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6812,7 +6809,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6833,10 +6830,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6847,10 +6844,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6873,19 +6870,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6934,7 +6931,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6955,10 +6952,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6969,10 +6966,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6995,19 +6992,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7056,7 +7053,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7077,10 +7074,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7091,10 +7088,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7117,19 +7114,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7178,7 +7175,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7199,10 +7196,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7213,13 +7210,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7323,13 +7320,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7337,10 +7334,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7363,13 +7360,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7420,7 +7417,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7455,10 +7452,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7487,7 +7484,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7540,7 +7537,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7575,10 +7572,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7601,19 +7598,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7662,7 +7659,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7683,10 +7680,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7697,10 +7694,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7723,13 +7720,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7780,7 +7777,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7815,10 +7812,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7847,7 +7844,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7900,7 +7897,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7935,10 +7932,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7964,23 +7961,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8022,7 +8019,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8043,10 +8040,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8057,10 +8054,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8083,16 +8080,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8142,7 +8139,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8163,10 +8160,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8177,10 +8174,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8206,23 +8203,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8264,7 +8261,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8285,10 +8282,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8299,10 +8296,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8325,19 +8322,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8386,7 +8383,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8407,10 +8404,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8421,10 +8418,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8447,19 +8444,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8508,7 +8505,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8529,10 +8526,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8543,10 +8540,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8569,19 +8566,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8630,7 +8627,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8651,10 +8648,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8665,13 +8662,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8775,13 +8772,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8789,10 +8786,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8815,13 +8812,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8872,7 +8869,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8907,10 +8904,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8939,7 +8936,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8992,7 +8989,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9027,10 +9024,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9053,19 +9050,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9114,7 +9111,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9135,10 +9132,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9149,10 +9146,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9175,13 +9172,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9232,7 +9229,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9267,10 +9264,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9299,7 +9296,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9352,7 +9349,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9387,10 +9384,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9416,23 +9413,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9474,7 +9471,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9495,10 +9492,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9509,10 +9506,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9535,16 +9532,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9594,7 +9591,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9615,10 +9612,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9629,10 +9626,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9658,23 +9655,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9716,7 +9713,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9737,10 +9734,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9751,10 +9748,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9777,19 +9774,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9838,7 +9835,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9859,10 +9856,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9873,10 +9870,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9899,19 +9896,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9960,7 +9957,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9981,10 +9978,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9995,10 +9992,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10021,19 +10018,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10082,7 +10079,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10103,10 +10100,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10117,13 +10114,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10227,13 +10224,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10241,10 +10238,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10267,13 +10264,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10324,7 +10321,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10359,10 +10356,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10391,7 +10388,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10444,7 +10441,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10479,10 +10476,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10505,19 +10502,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10566,7 +10563,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10587,10 +10584,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10601,10 +10598,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10627,13 +10624,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10684,7 +10681,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10719,10 +10716,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10751,7 +10748,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10804,7 +10801,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10839,10 +10836,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10868,23 +10865,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10926,7 +10923,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10947,10 +10944,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10961,10 +10958,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10987,16 +10984,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11046,7 +11043,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11067,10 +11064,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11081,10 +11078,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11110,23 +11107,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11168,7 +11165,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11189,10 +11186,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11203,10 +11200,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11229,19 +11226,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11290,7 +11287,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11311,10 +11308,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11325,10 +11322,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11351,19 +11348,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11412,7 +11409,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11433,10 +11430,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11447,10 +11444,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11473,19 +11470,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11534,7 +11531,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11555,10 +11552,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11569,13 +11566,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11679,13 +11676,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11693,10 +11690,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11719,13 +11716,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11776,7 +11773,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11811,10 +11808,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11843,7 +11840,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11896,7 +11893,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11931,10 +11928,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11957,19 +11954,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12018,7 +12015,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12039,10 +12036,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12053,10 +12050,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12079,13 +12076,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12136,7 +12133,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12171,10 +12168,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12203,7 +12200,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12256,7 +12253,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12291,10 +12288,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12320,23 +12317,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12378,7 +12375,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12399,10 +12396,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12413,10 +12410,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12439,16 +12436,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12498,7 +12495,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12519,10 +12516,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12533,10 +12530,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12562,23 +12559,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12620,7 +12617,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12641,10 +12638,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12655,10 +12652,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12681,19 +12678,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12742,7 +12739,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12763,10 +12760,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12777,10 +12774,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12803,19 +12800,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12864,7 +12861,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12885,10 +12882,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12899,10 +12896,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12925,19 +12922,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12986,7 +12983,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13007,10 +13004,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13021,14 +13018,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13050,16 +13047,16 @@
         <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13084,14 +13081,14 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13108,7 +13105,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>92</v>
@@ -13123,30 +13120,30 @@
         <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AO88" t="s" s="2">
+      <c r="AP88" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13169,13 +13166,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13226,7 +13223,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13261,10 +13258,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13293,7 +13290,7 @@
         <v>141</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>143</v>
@@ -13346,7 +13343,7 @@
         <v>146</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13381,10 +13378,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13407,19 +13404,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13468,7 +13465,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13489,10 +13486,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13503,10 +13500,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13529,13 +13526,13 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13586,7 +13583,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13621,10 +13618,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13653,7 +13650,7 @@
         <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>143</v>
@@ -13706,7 +13703,7 @@
         <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13741,10 +13738,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13770,23 +13767,23 @@
         <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13828,7 +13825,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13849,10 +13846,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13863,10 +13860,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13889,16 +13886,16 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13948,7 +13945,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13969,10 +13966,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13983,10 +13980,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14012,23 +14009,23 @@
         <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14070,7 +14067,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14091,10 +14088,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14105,10 +14102,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14131,19 +14128,19 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O97" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14192,7 +14189,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14213,10 +14210,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14227,10 +14224,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14253,19 +14250,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14314,7 +14311,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14335,10 +14332,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14349,10 +14346,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14375,19 +14372,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14397,7 +14394,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14436,7 +14433,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14457,10 +14454,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14471,10 +14468,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14497,19 +14494,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14558,7 +14555,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14573,19 +14570,19 @@
         <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14593,10 +14590,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14619,16 +14616,16 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14678,7 +14675,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14699,13 +14696,13 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14713,14 +14710,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14739,19 +14736,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14800,7 +14797,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14815,19 +14812,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -14835,14 +14832,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14861,19 +14858,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14922,7 +14919,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14937,19 +14934,19 @@
         <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN103" t="s" s="2">
+      <c r="AO103" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14957,10 +14954,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14983,16 +14980,16 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15042,7 +15039,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15063,13 +15060,13 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15077,10 +15074,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15103,19 +15100,19 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15164,7 +15161,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15179,19 +15176,19 @@
         <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AN105" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AO105" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15199,10 +15196,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15225,19 +15222,19 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15274,7 +15271,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15284,7 +15281,7 @@
         <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15293,7 +15290,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15302,30 +15299,30 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15347,19 +15344,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15408,7 +15405,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15417,36 +15414,36 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
+      <c r="AM107" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AM107" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AO107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP107" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15469,13 +15466,13 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15526,7 +15523,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15561,10 +15558,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15593,7 +15590,7 @@
         <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>143</v>
@@ -15646,7 +15643,7 @@
         <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15681,10 +15678,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15707,19 +15704,19 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15768,7 +15765,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15789,10 +15786,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15803,10 +15800,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B111" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15832,22 +15829,22 @@
         <v>115</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O111" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="N111" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O111" t="s" s="2">
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q111" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>82</v>
@@ -15871,28 +15868,28 @@
         <v>188</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Z111" t="s" s="2">
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15913,10 +15910,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15927,10 +15924,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15953,19 +15950,19 @@
         <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16014,7 +16011,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16035,10 +16032,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16049,10 +16046,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16078,74 +16075,74 @@
         <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="S113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI113" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16157,10 +16154,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16171,10 +16168,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16200,16 +16197,16 @@
         <v>115</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M114" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16237,28 +16234,28 @@
         <v>188</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="Z114" t="s" s="2">
+      <c r="AA114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF114" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16279,10 +16276,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16293,10 +16290,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16322,16 +16319,16 @@
         <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16356,40 +16353,40 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y115" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y115" t="s" s="2">
+      <c r="Z115" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z115" t="s" s="2">
+      <c r="AA115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI115" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16404,7 +16401,7 @@
         <v>106</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16415,14 +16412,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16444,16 +16441,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16478,14 +16475,14 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="Z116" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16502,7 +16499,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16520,27 +16517,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM116" t="s" s="2">
+      <c r="AN116" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN116" t="s" s="2">
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP116" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16563,19 +16560,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16624,7 +16621,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16645,10 +16642,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16659,10 +16656,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16688,13 +16685,13 @@
         <v>198</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16720,14 +16717,14 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y118" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z118" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="Z118" t="s" s="2">
-        <v>549</v>
-      </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16744,7 +16741,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16762,27 +16759,27 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AN118" t="s" s="2">
+      <c r="AO118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP118" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>553</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16808,16 +16805,16 @@
         <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="N119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16842,14 +16839,14 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y119" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="Z119" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="Z119" t="s" s="2">
-        <v>560</v>
-      </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16866,7 +16863,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16887,10 +16884,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16901,10 +16898,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16927,16 +16924,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16986,7 +16983,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17004,27 +17001,27 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AM120" t="s" s="2">
+      <c r="AN120" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>571</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17047,16 +17044,16 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17106,7 +17103,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17124,27 +17121,27 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AM121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AN121" t="s" s="2">
+      <c r="AO121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP121" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>580</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17167,19 +17164,19 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17228,7 +17225,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17240,19 +17237,19 @@
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AK122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17263,10 +17260,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17289,13 +17286,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17346,7 +17343,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17381,10 +17378,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17413,7 +17410,7 @@
         <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>143</v>
@@ -17466,7 +17463,7 @@
         <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17501,14 +17498,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17530,10 +17527,10 @@
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
@@ -17588,7 +17585,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17623,10 +17620,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17649,16 +17646,16 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17708,7 +17705,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17717,22 +17714,22 @@
         <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AJ126" t="s" s="2">
+      <c r="AK126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM126" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM126" t="s" s="2">
+      <c r="AN126" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17743,10 +17740,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17769,16 +17766,16 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>608</v>
-      </c>
       <c r="N127" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17828,7 +17825,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17837,22 +17834,22 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AJ127" t="s" s="2">
+      <c r="AK127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM127" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AN127" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17863,10 +17860,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17892,16 +17889,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="N128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17929,11 +17926,11 @@
         <v>119</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>616</v>
-      </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
       </c>
@@ -17950,7 +17947,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17968,13 +17965,13 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM128" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AM128" t="s" s="2">
-        <v>618</v>
-      </c>
       <c r="AN128" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17985,10 +17982,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18014,16 +18011,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18048,14 +18045,14 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y129" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z129" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="Z129" t="s" s="2">
-        <v>625</v>
-      </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18072,7 +18069,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18090,13 +18087,13 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AM129" t="s" s="2">
-        <v>618</v>
-      </c>
       <c r="AN129" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18107,10 +18104,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18133,19 +18130,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18194,7 +18191,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18206,19 +18203,19 @@
         <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AK130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18229,10 +18226,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18255,16 +18252,16 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M131" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="N131" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -18314,7 +18311,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18335,10 +18332,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18349,10 +18346,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18375,16 +18372,16 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18434,7 +18431,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18455,10 +18452,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AN132" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18469,10 +18466,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18495,16 +18492,16 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18554,7 +18551,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18575,10 +18572,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18589,10 +18586,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18615,19 +18612,19 @@
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18676,7 +18673,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18697,10 +18694,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AN134" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18711,10 +18708,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18737,13 +18734,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18794,7 +18791,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18829,10 +18826,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18861,7 +18858,7 @@
         <v>141</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N136" t="s" s="2">
         <v>143</v>
@@ -18914,7 +18911,7 @@
         <v>146</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18949,14 +18946,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -18978,10 +18975,10 @@
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
@@ -19036,7 +19033,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19071,10 +19068,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19100,16 +19097,16 @@
         <v>198</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="N138" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="O138" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19134,14 +19131,14 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y138" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y138" t="s" s="2">
+      <c r="Z138" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Z138" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
@@ -19158,7 +19155,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>92</v>
@@ -19176,16 +19173,16 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM138" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN138" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN138" t="s" s="2">
+      <c r="AO138" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19193,10 +19190,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19219,19 +19216,19 @@
         <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M139" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="O139" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19280,7 +19277,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19298,27 +19295,27 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM139" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN139" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AN139" t="s" s="2">
+      <c r="AO139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP139" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP139" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19344,16 +19341,16 @@
         <v>198</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="N140" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="O140" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19378,40 +19375,40 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y140" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y140" t="s" s="2">
+      <c r="Z140" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z140" t="s" s="2">
+      <c r="AA140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI140" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>105</v>
@@ -19426,7 +19423,7 @@
         <v>106</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19437,14 +19434,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19466,16 +19463,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19500,14 +19497,14 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y141" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z141" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="Z141" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
       </c>
@@ -19524,7 +19521,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19542,27 +19539,27 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM141" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM141" t="s" s="2">
+      <c r="AN141" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN141" t="s" s="2">
+      <c r="AO141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP141" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP141" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19588,16 +19585,16 @@
         <v>83</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M142" t="s" s="2">
-        <v>678</v>
-      </c>
       <c r="N142" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19646,7 +19643,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19667,10 +19664,10 @@
         <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AN142" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -4265,10 +4268,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4292,13 +4295,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4306,13 +4309,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4416,13 +4419,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4430,10 +4433,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4456,13 +4459,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4513,7 +4516,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4548,10 +4551,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4580,7 +4583,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4633,7 +4636,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4668,10 +4671,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4679,13 +4682,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4694,19 +4697,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4755,7 +4758,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4776,10 +4779,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4790,10 +4793,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4816,13 +4819,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4873,7 +4876,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4908,10 +4911,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4940,7 +4943,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4993,7 +4996,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5028,10 +5031,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5039,13 +5042,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5057,23 +5060,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -5115,7 +5118,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5136,10 +5139,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5150,10 +5153,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5176,16 +5179,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5235,7 +5238,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5256,10 +5259,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5270,10 +5273,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5281,13 +5284,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5299,23 +5302,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5357,7 +5360,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5378,10 +5381,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5392,10 +5395,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5418,19 +5421,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5479,7 +5482,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5500,10 +5503,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5514,10 +5517,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5540,19 +5543,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5601,7 +5604,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5622,10 +5625,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5636,10 +5639,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5662,19 +5665,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5723,7 +5726,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5744,10 +5747,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5758,13 +5761,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5868,13 +5871,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5882,10 +5885,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5908,13 +5911,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5965,7 +5968,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6000,10 +6003,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6032,7 +6035,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6085,7 +6088,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6120,10 +6123,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6131,13 +6134,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6146,19 +6149,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6207,7 +6210,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6228,10 +6231,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6242,10 +6245,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6268,13 +6271,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6325,7 +6328,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6360,10 +6363,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6392,7 +6395,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6445,7 +6448,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6480,10 +6483,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6491,13 +6494,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6509,23 +6512,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6567,7 +6570,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6588,10 +6591,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6602,10 +6605,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6628,16 +6631,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6687,7 +6690,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6708,10 +6711,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6722,10 +6725,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6733,13 +6736,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6751,23 +6754,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6809,7 +6812,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6830,10 +6833,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6844,10 +6847,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6870,19 +6873,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6931,7 +6934,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6952,10 +6955,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6966,10 +6969,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6992,19 +6995,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7053,7 +7056,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7074,10 +7077,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7088,10 +7091,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7114,19 +7117,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7175,7 +7178,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7196,10 +7199,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7210,13 +7213,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7320,13 +7323,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7334,10 +7337,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7360,13 +7363,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7417,7 +7420,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7452,10 +7455,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7484,7 +7487,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7537,7 +7540,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7572,10 +7575,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7583,13 +7586,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7598,19 +7601,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7659,7 +7662,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7680,10 +7683,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7694,10 +7697,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7720,13 +7723,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7777,7 +7780,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7812,10 +7815,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7844,7 +7847,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7897,7 +7900,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7932,10 +7935,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7943,13 +7946,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7961,23 +7964,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8019,7 +8022,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8040,10 +8043,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8054,10 +8057,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8080,16 +8083,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8139,7 +8142,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8160,10 +8163,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8174,10 +8177,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8185,13 +8188,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8203,23 +8206,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8261,7 +8264,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8282,10 +8285,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8296,10 +8299,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8322,19 +8325,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8383,7 +8386,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8404,10 +8407,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8418,10 +8421,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8444,19 +8447,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8505,7 +8508,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8526,10 +8529,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8540,10 +8543,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8566,19 +8569,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8627,7 +8630,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8648,10 +8651,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8662,13 +8665,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8772,13 +8775,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8786,10 +8789,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8812,13 +8815,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8869,7 +8872,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8904,10 +8907,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8936,7 +8939,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8989,7 +8992,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9024,10 +9027,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9035,13 +9038,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9050,19 +9053,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9111,7 +9114,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9132,10 +9135,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9146,10 +9149,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9172,13 +9175,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9229,7 +9232,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9264,10 +9267,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9296,7 +9299,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9349,7 +9352,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9384,10 +9387,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9395,13 +9398,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9413,23 +9416,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9471,7 +9474,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9492,10 +9495,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9506,10 +9509,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9532,16 +9535,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9591,7 +9594,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9612,10 +9615,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9626,10 +9629,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9637,13 +9640,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -9655,23 +9658,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9713,7 +9716,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9734,10 +9737,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9748,10 +9751,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9774,19 +9777,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9835,7 +9838,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9856,10 +9859,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9870,10 +9873,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9896,19 +9899,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9957,7 +9960,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9978,10 +9981,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9992,10 +9995,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10018,19 +10021,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10079,7 +10082,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10100,10 +10103,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10114,13 +10117,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10224,13 +10227,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10238,10 +10241,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10264,13 +10267,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10321,7 +10324,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10356,10 +10359,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10388,7 +10391,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10441,7 +10444,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10476,10 +10479,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10487,13 +10490,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10502,19 +10505,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10563,7 +10566,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10584,10 +10587,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10598,10 +10601,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10624,13 +10627,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10681,7 +10684,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10716,10 +10719,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10748,7 +10751,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10801,7 +10804,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10836,10 +10839,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10847,13 +10850,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10865,23 +10868,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10923,7 +10926,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10944,10 +10947,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10958,10 +10961,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10984,16 +10987,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11043,7 +11046,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11064,10 +11067,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11078,10 +11081,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11089,13 +11092,13 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11107,23 +11110,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11165,7 +11168,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11186,10 +11189,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11200,10 +11203,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11226,19 +11229,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11287,7 +11290,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11308,10 +11311,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11322,10 +11325,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11348,19 +11351,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11409,7 +11412,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11430,10 +11433,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11444,10 +11447,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11470,19 +11473,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11531,7 +11534,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11552,10 +11555,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11566,13 +11569,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11676,13 +11679,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11690,10 +11693,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11716,13 +11719,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11773,7 +11776,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11808,10 +11811,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11840,7 +11843,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11893,7 +11896,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11928,10 +11931,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11939,13 +11942,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -11954,19 +11957,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12015,7 +12018,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12036,10 +12039,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12050,10 +12053,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12076,13 +12079,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12133,7 +12136,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12168,10 +12171,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12200,7 +12203,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12253,7 +12256,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12288,10 +12291,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12299,13 +12302,13 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12317,23 +12320,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12375,7 +12378,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12396,10 +12399,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12410,10 +12413,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12436,16 +12439,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12495,7 +12498,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12516,10 +12519,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12530,10 +12533,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12541,13 +12544,13 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
@@ -12559,23 +12562,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12617,7 +12620,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12638,10 +12641,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12652,10 +12655,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12678,19 +12681,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12739,7 +12742,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12760,10 +12763,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12774,10 +12777,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12800,19 +12803,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12861,7 +12864,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12882,10 +12885,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12896,10 +12899,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12922,19 +12925,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12983,7 +12986,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13004,10 +13007,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13018,14 +13021,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13047,16 +13050,16 @@
         <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13081,13 +13084,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13105,7 +13108,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>92</v>
@@ -13120,30 +13123,30 @@
         <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13166,13 +13169,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13223,7 +13226,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13258,10 +13261,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13290,7 +13293,7 @@
         <v>141</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>143</v>
@@ -13343,7 +13346,7 @@
         <v>146</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13378,10 +13381,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13404,19 +13407,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13465,7 +13468,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13486,10 +13489,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13500,10 +13503,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13526,13 +13529,13 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13583,7 +13586,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13618,10 +13621,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13650,7 +13653,7 @@
         <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>143</v>
@@ -13703,7 +13706,7 @@
         <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13738,10 +13741,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13767,23 +13770,23 @@
         <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13825,7 +13828,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13846,10 +13849,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13860,10 +13863,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13886,16 +13889,16 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13945,7 +13948,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13966,10 +13969,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13980,10 +13983,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14009,23 +14012,23 @@
         <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14067,7 +14070,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14088,10 +14091,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14102,10 +14105,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14128,19 +14131,19 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14189,7 +14192,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14210,10 +14213,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14224,10 +14227,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14250,19 +14253,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14311,7 +14314,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14332,10 +14335,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14346,10 +14349,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14372,19 +14375,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14394,7 +14397,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14433,7 +14436,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14454,10 +14457,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14468,10 +14471,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14494,19 +14497,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14555,7 +14558,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14570,19 +14573,19 @@
         <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14590,10 +14593,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14616,16 +14619,16 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14675,7 +14678,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14696,13 +14699,13 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14710,14 +14713,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14736,19 +14739,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14797,7 +14800,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14812,19 +14815,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -14832,14 +14835,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14858,19 +14861,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14919,7 +14922,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14934,19 +14937,19 @@
         <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14954,10 +14957,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14980,16 +14983,16 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15039,7 +15042,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15060,13 +15063,13 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15074,10 +15077,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15100,19 +15103,19 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15161,7 +15164,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15176,19 +15179,19 @@
         <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15196,10 +15199,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15222,19 +15225,19 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15271,7 +15274,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15281,7 +15284,7 @@
         <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15290,7 +15293,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15299,30 +15302,30 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15344,19 +15347,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15405,7 +15408,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15414,7 +15417,7 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>82</v>
@@ -15423,27 +15426,27 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15466,13 +15469,13 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15523,7 +15526,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15558,10 +15561,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15590,7 +15593,7 @@
         <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>143</v>
@@ -15643,7 +15646,7 @@
         <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15678,10 +15681,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15704,19 +15707,19 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15765,7 +15768,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15786,10 +15789,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15800,10 +15803,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15829,22 +15832,22 @@
         <v>115</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q111" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>82</v>
@@ -15868,10 +15871,10 @@
         <v>188</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15889,7 +15892,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15910,10 +15913,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15924,10 +15927,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15950,19 +15953,19 @@
         <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16011,7 +16014,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16032,10 +16035,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16046,10 +16049,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16075,23 +16078,23 @@
         <v>108</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>82</v>
@@ -16133,7 +16136,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16142,7 +16145,7 @@
         <v>92</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16154,10 +16157,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16168,10 +16171,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16197,16 +16200,16 @@
         <v>115</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16234,10 +16237,10 @@
         <v>188</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16255,7 +16258,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16276,10 +16279,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16290,10 +16293,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16319,16 +16322,16 @@
         <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16353,13 +16356,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16377,7 +16380,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16386,7 +16389,7 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16401,7 +16404,7 @@
         <v>106</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16412,14 +16415,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16441,16 +16444,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16475,13 +16478,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16499,7 +16502,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16517,27 +16520,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16560,19 +16563,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16621,7 +16624,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16642,10 +16645,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16656,10 +16659,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16685,13 +16688,13 @@
         <v>198</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16717,13 +16720,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16741,7 +16744,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16759,27 +16762,27 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16805,16 +16808,16 @@
         <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16839,13 +16842,13 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16863,7 +16866,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16884,10 +16887,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16898,10 +16901,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16924,16 +16927,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16983,7 +16986,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17001,27 +17004,27 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17044,16 +17047,16 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17103,7 +17106,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17121,27 +17124,27 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17164,19 +17167,19 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17225,7 +17228,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17237,7 +17240,7 @@
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17246,10 +17249,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17260,10 +17263,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17286,13 +17289,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17343,7 +17346,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17378,10 +17381,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17410,7 +17413,7 @@
         <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>143</v>
@@ -17463,7 +17466,7 @@
         <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17498,14 +17501,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17527,10 +17530,10 @@
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
@@ -17585,7 +17588,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17620,10 +17623,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17646,16 +17649,16 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17705,7 +17708,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17714,10 +17717,10 @@
         <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
@@ -17726,10 +17729,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17740,10 +17743,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17766,16 +17769,16 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17825,7 +17828,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17834,10 +17837,10 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17846,10 +17849,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17860,10 +17863,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17889,16 +17892,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17926,10 +17929,10 @@
         <v>119</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17947,7 +17950,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17965,13 +17968,13 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17982,10 +17985,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18011,16 +18014,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18045,13 +18048,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18069,7 +18072,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18087,13 +18090,13 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18104,10 +18107,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18130,19 +18133,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18191,7 +18194,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18203,7 +18206,7 @@
         <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
@@ -18212,10 +18215,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18226,10 +18229,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18252,16 +18255,16 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -18311,7 +18314,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18332,10 +18335,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18346,10 +18349,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18372,16 +18375,16 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18431,7 +18434,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18452,10 +18455,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18466,10 +18469,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18492,16 +18495,16 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18551,7 +18554,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18572,10 +18575,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18586,10 +18589,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18612,19 +18615,19 @@
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18673,7 +18676,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18694,10 +18697,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18708,10 +18711,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18734,13 +18737,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18791,7 +18794,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18826,10 +18829,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18858,7 +18861,7 @@
         <v>141</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N136" t="s" s="2">
         <v>143</v>
@@ -18911,7 +18914,7 @@
         <v>146</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18946,14 +18949,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -18975,10 +18978,10 @@
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
@@ -19033,7 +19036,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19068,10 +19071,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19097,16 +19100,16 @@
         <v>198</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19131,13 +19134,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19155,7 +19158,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>92</v>
@@ -19173,16 +19176,16 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19190,10 +19193,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19216,19 +19219,19 @@
         <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19277,7 +19280,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19295,27 +19298,27 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19341,16 +19344,16 @@
         <v>198</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19375,13 +19378,13 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19399,7 +19402,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19408,7 +19411,7 @@
         <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>105</v>
@@ -19423,7 +19426,7 @@
         <v>106</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19434,14 +19437,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19463,16 +19466,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19497,13 +19500,13 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
@@ -19521,7 +19524,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19539,27 +19542,27 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19585,16 +19588,16 @@
         <v>83</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19643,7 +19646,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19664,10 +19667,10 @@
         <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cde-potassium-in-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
